--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -383,6 +383,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\xltrail-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\xltrail-test - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -388,6 +388,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -388,6 +388,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -393,6 +393,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\xltrail-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36548E13-78FE-5A40-9267-8F93C07DAF4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21150" windowHeight="8610"/>
+    <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,33 +370,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36548E13-78FE-5A40-9267-8F93C07DAF4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E717213E-CB2B-094E-8C51-7EED2A6713EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -404,6 +404,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E717213E-CB2B-094E-8C51-7EED2A6713EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A532FE-E581-5148-A5E9-AE465E9DDF8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -409,6 +409,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A532FE-E581-5148-A5E9-AE465E9DDF8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,48 +369,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\xltrail-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEMO\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -418,6 +418,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -418,6 +418,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\xltrail-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEMO\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CAA4335-7167-4879-8B79-C8EC41CF1B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618"/>
+    <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,11 +370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -423,6 +424,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEMO\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CAA4335-7167-4879-8B79-C8EC41CF1B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE95F2E4-450A-4E85-AD89-E8D07B584ED9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -429,6 +429,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEMO\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE95F2E4-450A-4E85-AD89-E8D07B584ED9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{990CCA7E-48E7-493A-98C4-7F3FF398DCF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -434,6 +434,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEMO\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{990CCA7E-48E7-493A-98C4-7F3FF398DCF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3516D15-ABA2-418B-8208-9F424676DAB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -439,6 +439,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEMO\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3516D15-ABA2-418B-8208-9F424676DAB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{178F7DE3-FFFE-4C58-BFAF-B3CFC88AB65C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -444,6 +444,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEMO\xltrail-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{178F7DE3-FFFE-4C58-BFAF-B3CFC88AB65C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE2A8B3-12DE-4C46-9508-E9A76F4F893D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3420" windowWidth="21158" windowHeight="8618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,7 +31,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,82 +376,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE2A8B3-12DE-4C46-9508-E9A76F4F893D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391F620-F0BA-FF4A-BC65-7A025B203F3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -425,6 +425,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391F620-F0BA-FF4A-BC65-7A025B203F3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEABEFA-09D9-6D4F-907F-F1AC14689C0E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -430,6 +430,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEABEFA-09D9-6D4F-907F-F1AC14689C0E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C208410-5688-F341-9104-D40F3CA14B1A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -435,6 +435,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C208410-5688-F341-9104-D40F3CA14B1A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52503EBB-3A8A-874C-AD41-C53AA308ADC9}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -440,6 +440,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52503EBB-3A8A-874C-AD41-C53AA308ADC9}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF873409-63A9-E244-96B9-151709BFD88B}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -445,6 +445,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF873409-63A9-E244-96B9-151709BFD88B}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE132D78-F2BF-274C-8D47-AC7C6D7CF7C3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -450,6 +450,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE132D78-F2BF-274C-8D47-AC7C6D7CF7C3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462702D5-255C-FF4B-AB55-0E39D58BFD00}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -455,6 +455,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462702D5-255C-FF4B-AB55-0E39D58BFD00}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3425FA2-44EA-6348-9119-B7C465A94ADF}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -460,6 +460,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3425FA2-44EA-6348-9119-B7C465A94ADF}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF72C6-A85F-AA41-9D4C-503510461E83}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -465,6 +465,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF72C6-A85F-AA41-9D4C-503510461E83}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A687A-90B6-0D47-B6B5-273FE5F20D57}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -470,6 +470,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A687A-90B6-0D47-B6B5-273FE5F20D57}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2413C38-7E9A-6846-9B4F-CCCA0F538D88}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -475,6 +475,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2413C38-7E9A-6846-9B4F-CCCA0F538D88}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4B64A-8751-A04D-8B9A-B659D99279CF}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -480,6 +480,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4B64A-8751-A04D-8B9A-B659D99279CF}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83416BD0-77EA-6148-94FF-DA16C47E5C45}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -485,6 +485,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83416BD0-77EA-6148-94FF-DA16C47E5C45}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D5A4D-17B8-1347-BA8C-A71DDB0C0774}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -490,6 +490,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D5A4D-17B8-1347-BA8C-A71DDB0C0774}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1CF941-9D30-CA4D-A8DF-4350E633EA99}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -495,6 +495,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1CF941-9D30-CA4D-A8DF-4350E633EA99}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE51D2-6226-744F-ACCF-CACB8D949900}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -500,6 +500,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE51D2-6226-744F-ACCF-CACB8D949900}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CE16C-91D6-1843-A179-29966F26CB23}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -505,6 +505,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CE16C-91D6-1843-A179-29966F26CB23}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98A610-532F-CB42-816F-DF86991974AB}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -510,6 +510,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98A610-532F-CB42-816F-DF86991974AB}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CC1DA-1D80-E34A-9742-52118D399D4D}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -515,6 +515,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CC1DA-1D80-E34A-9742-52118D399D4D}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8921D-4070-E74A-B49F-1637611892FC}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -520,6 +520,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8921D-4070-E74A-B49F-1637611892FC}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69BC01-8F41-7C47-B040-D69C6EDA5B43}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -525,6 +525,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69BC01-8F41-7C47-B040-D69C6EDA5B43}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9F406-FF20-C249-942A-E2C92CAF12CC}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -530,6 +530,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9F406-FF20-C249-942A-E2C92CAF12CC}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE8EF7-AF2F-3044-BB2C-DBD2BB1BEF47}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -535,6 +535,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE8EF7-AF2F-3044-BB2C-DBD2BB1BEF47}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199EC66-7826-C848-AC03-74521612BF06}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -540,6 +540,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199EC66-7826-C848-AC03-74521612BF06}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364FE77-ED91-2847-9F45-4281A420AC31}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -545,6 +545,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364FE77-ED91-2847-9F45-4281A420AC31}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286F8FE-EB7D-B641-A09F-714A4D89EBD6}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -550,6 +550,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286F8FE-EB7D-B641-A09F-714A4D89EBD6}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B32D1-6BB7-C749-AF31-64AC666BF01A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -555,6 +555,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B32D1-6BB7-C749-AF31-64AC666BF01A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD2981B-10F2-DE49-B7BF-A386179F670A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,9 +377,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -560,6 +560,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD2981B-10F2-DE49-B7BF-A386179F670A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307FE74E-9E92-FA42-BA9C-2649CD150A69}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -565,6 +565,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307FE74E-9E92-FA42-BA9C-2649CD150A69}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C2949-18AC-B14F-9307-9E0132F06825}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -570,6 +570,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C2949-18AC-B14F-9307-9E0132F06825}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077706D-2CA9-B344-8665-7D39669986A9}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -575,6 +575,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077706D-2CA9-B344-8665-7D39669986A9}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EAFAF4-CFFA-554A-8EED-D8BB3270CBD5}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -580,6 +580,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EAFAF4-CFFA-554A-8EED-D8BB3270CBD5}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03437B96-59A7-894E-B5C7-266BB62690F3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -585,6 +585,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03437B96-59A7-894E-B5C7-266BB62690F3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7F580-F58E-DF47-AD88-4F7341524DA0}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -590,6 +590,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7F580-F58E-DF47-AD88-4F7341524DA0}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2043D3-B8BC-E743-9360-7FBF27DC4AF2}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -595,6 +595,11 @@
         <v>43</v>
       </c>
     </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2043D3-B8BC-E743-9360-7FBF27DC4AF2}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840AC9E6-7D5A-1745-A292-22954C08704A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -600,6 +600,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840AC9E6-7D5A-1745-A292-22954C08704A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6C8B6-B89B-2545-BA95-3D3148AB5830}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -605,6 +605,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6C8B6-B89B-2545-BA95-3D3148AB5830}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38756DB7-3882-0C43-B2DE-22A134FC0664}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -610,6 +610,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38756DB7-3882-0C43-B2DE-22A134FC0664}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112EFDD-6B61-C24D-828E-26E0AB3D8585}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -615,6 +615,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112EFDD-6B61-C24D-828E-26E0AB3D8585}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7D0E9-F07C-0648-B4C1-1FB4BE66A56C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -620,6 +620,11 @@
         <v>48</v>
       </c>
     </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7D0E9-F07C-0648-B4C1-1FB4BE66A56C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856DF8A8-B0DB-5B4D-B87F-A79F83FF3649}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -625,6 +625,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856DF8A8-B0DB-5B4D-B87F-A79F83FF3649}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642FED4-C6B8-5F44-A6BE-2E503DADCF28}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -630,6 +630,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642FED4-C6B8-5F44-A6BE-2E503DADCF28}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32FF47-B0C9-CE4D-B9B6-EDEC3DF0786C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -635,6 +635,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32FF47-B0C9-CE4D-B9B6-EDEC3DF0786C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BAFEB-EA48-6A47-AAAA-4CFD2EBC7EF2}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -640,6 +640,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BAFEB-EA48-6A47-AAAA-4CFD2EBC7EF2}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE0754-1B6D-E145-842F-D20B0C8EA62C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -645,6 +645,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE0754-1B6D-E145-842F-D20B0C8EA62C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C325E9DC-2C5E-3A4F-85A4-7B83AA67D029}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -650,6 +650,11 @@
         <v>54</v>
       </c>
     </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C325E9DC-2C5E-3A4F-85A4-7B83AA67D029}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5B747-6559-BC42-804E-B3E29556694D}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -655,6 +655,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5B747-6559-BC42-804E-B3E29556694D}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDFA59-029B-9D41-B728-7F275F4F67DD}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -660,6 +660,11 @@
         <v>56</v>
       </c>
     </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDFA59-029B-9D41-B728-7F275F4F67DD}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0AE1F-C9CF-DD44-BE19-43BD08361A9F}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -665,6 +665,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0AE1F-C9CF-DD44-BE19-43BD08361A9F}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E28AF1-7826-A94E-956D-934AFB032FE2}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -670,6 +670,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E28AF1-7826-A94E-956D-934AFB032FE2}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C129B2E-C3B1-7F48-8479-793D95F6D4B6}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -675,6 +675,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C129B2E-C3B1-7F48-8479-793D95F6D4B6}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE1D860-B01A-F540-9DAA-ADF2A9703BC1}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -680,6 +680,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE1D860-B01A-F540-9DAA-ADF2A9703BC1}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89FB05-09A4-774C-A979-762370394197}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -685,6 +685,11 @@
         <v>61</v>
       </c>
     </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89FB05-09A4-774C-A979-762370394197}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3635B0-3DE5-764F-BF1F-170AF8AA38D3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -690,6 +690,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3635B0-3DE5-764F-BF1F-170AF8AA38D3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4553C71-43B1-824B-90C3-F88213A8ACF6}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -695,6 +695,11 @@
         <v>63</v>
       </c>
     </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4553C71-43B1-824B-90C3-F88213A8ACF6}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC9585A-6FEC-734E-8E7F-11B53F2CA660}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -700,6 +700,11 @@
         <v>64</v>
       </c>
     </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC9585A-6FEC-734E-8E7F-11B53F2CA660}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1CD0F-6949-1B4E-89DA-37B3BB33772B}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -705,6 +705,11 @@
         <v>65</v>
       </c>
     </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1CD0F-6949-1B4E-89DA-37B3BB33772B}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4573E1C5-0415-1746-829D-8D1F101A5228}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -710,6 +710,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4573E1C5-0415-1746-829D-8D1F101A5228}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF12921-95D8-D148-988B-F347BBE67E41}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -715,6 +715,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF12921-95D8-D148-988B-F347BBE67E41}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF45BE-A245-3F42-AD62-14A1EE0AFFFA}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -720,6 +720,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF45BE-A245-3F42-AD62-14A1EE0AFFFA}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102A859-7404-944A-85F1-35B46BB70EC0}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -725,6 +725,11 @@
         <v>69</v>
       </c>
     </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102A859-7404-944A-85F1-35B46BB70EC0}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615CE0C5-C9CE-DA40-ABEA-5093BEA2BB72}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -730,6 +730,11 @@
         <v>70</v>
       </c>
     </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615CE0C5-C9CE-DA40-ABEA-5093BEA2BB72}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782DE10-FD09-9045-9EE8-A7BC61E7CF53}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -735,6 +735,11 @@
         <v>71</v>
       </c>
     </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782DE10-FD09-9045-9EE8-A7BC61E7CF53}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF6B1E-E421-DC4C-B90E-E0831ACB1B63}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -740,6 +740,11 @@
         <v>72</v>
       </c>
     </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF6B1E-E421-DC4C-B90E-E0831ACB1B63}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7543D-7853-0449-ABAF-ECBE5DDA0FCD}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -745,6 +745,11 @@
         <v>73</v>
       </c>
     </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7543D-7853-0449-ABAF-ECBE5DDA0FCD}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34BBDB3-1CFA-1C4D-8E73-65771832129C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A73"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -750,6 +750,11 @@
         <v>74</v>
       </c>
     </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34BBDB3-1CFA-1C4D-8E73-65771832129C}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7855D-3C20-6141-8096-27891A498D30}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -755,6 +755,11 @@
         <v>75</v>
       </c>
     </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7855D-3C20-6141-8096-27891A498D30}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A00FB4-CF7B-1E43-AB87-CF168E8CA55A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -760,6 +760,11 @@
         <v>76</v>
       </c>
     </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A00FB4-CF7B-1E43-AB87-CF168E8CA55A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97065B72-4886-1D4A-921F-F7E3B2D1C4C3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -765,6 +769,11 @@
         <v>77</v>
       </c>
     </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97065B72-4886-1D4A-921F-F7E3B2D1C4C3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC17FC3-8676-0D4C-89AD-0C2AC9FFCFB4}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,10 +381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -774,6 +774,11 @@
         <v>78</v>
       </c>
     </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC17FC3-8676-0D4C-89AD-0C2AC9FFCFB4}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E7AE3-0891-EC49-BE2F-5CDE8C8433A9}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -779,6 +775,11 @@
         <v>79</v>
       </c>
     </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E7AE3-0891-EC49-BE2F-5CDE8C8433A9}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0C862-DD11-E34C-AE1F-5D5B6C4DCE21}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -780,6 +780,11 @@
         <v>80</v>
       </c>
     </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0C862-DD11-E34C-AE1F-5D5B6C4DCE21}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C4D44-789A-2B41-BB02-1AB950FE981B}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -785,6 +785,11 @@
         <v>81</v>
       </c>
     </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C4D44-789A-2B41-BB02-1AB950FE981B}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BC40E-A50F-094C-ADC6-E5BD1375394A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -790,6 +790,11 @@
         <v>82</v>
       </c>
     </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BC40E-A50F-094C-ADC6-E5BD1375394A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B75D9-5DA3-F647-B651-64025910F509}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -795,6 +795,11 @@
         <v>83</v>
       </c>
     </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B75D9-5DA3-F647-B651-64025910F509}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B851E-1549-2E47-AA5B-B71B76AEC9A5}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
@@ -800,6 +800,11 @@
         <v>84</v>
       </c>
     </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B851E-1549-2E47-AA5B-B71B76AEC9A5}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D61396F-3089-BB45-A003-DF585EAC12DD}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -805,6 +805,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D61396F-3089-BB45-A003-DF585EAC12DD}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D97C6-11EC-4C46-920D-AB740E3F123E}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -810,6 +810,11 @@
         <v>86</v>
       </c>
     </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D97C6-11EC-4C46-920D-AB740E3F123E}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2857A3-FFDF-E048-A2CE-86C9BDC5F713}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -815,6 +815,11 @@
         <v>87</v>
       </c>
     </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2857A3-FFDF-E048-A2CE-86C9BDC5F713}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B162E3-E07D-2B4A-8918-AF40D86B96DB}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -820,6 +820,11 @@
         <v>88</v>
       </c>
     </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B162E3-E07D-2B4A-8918-AF40D86B96DB}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9307D-3165-754B-BD59-16FBEF70BC52}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A88"/>
+  <dimension ref="A1:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -825,6 +825,11 @@
         <v>89</v>
       </c>
     </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9307D-3165-754B-BD59-16FBEF70BC52}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C0A29-14C9-2643-8075-9754B42ED2C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -830,6 +830,11 @@
         <v>90</v>
       </c>
     </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C0A29-14C9-2643-8075-9754B42ED2C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B037E8A7-CDF5-C440-8FD4-4894292784DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -835,6 +835,11 @@
         <v>91</v>
       </c>
     </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B037E8A7-CDF5-C440-8FD4-4894292784DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E4F7E-10F5-F440-8C02-DEBF1947EFBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -840,6 +840,11 @@
         <v>92</v>
       </c>
     </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11007"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E4F7E-10F5-F440-8C02-DEBF1947EFBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C4FA3-4912-254E-9E92-D9147B7C27C1}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -845,6 +845,16 @@
         <v>93</v>
       </c>
     </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C4FA3-4912-254E-9E92-D9147B7C27C1}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46087DF-BD37-8D4A-8020-86115F368D35}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A94"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -855,6 +855,11 @@
         <v>95</v>
       </c>
     </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46087DF-BD37-8D4A-8020-86115F368D35}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F4781B-DCEB-CB40-8FBF-0E763374260B}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -860,6 +860,11 @@
         <v>96</v>
       </c>
     </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F4781B-DCEB-CB40-8FBF-0E763374260B}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A68B1-1D84-FA48-8F22-81FDFA3EBD91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>asdlkj as;dlfkj asdf;lkajsd f;laskdjf ;alsdkfj a;lkj asdf;laksj df;alskdjf a;lsdkjf a;sldkfj as;dlfkja sd;flakjsd f;alsdkfj a;sldkfj as;dlfkja sd;flkajs df;alskdjf a;sldkfja ;sdlfja s;dlfkja sd;flajksd f;lasdkj fa;sldkfj as;ldfja sd;flkajs df;alsdkjf as;dlkfj as;dlfkaj sd;flkajsd f;alskdjf a;lsdkjf a;sdlkfja ;sdlfkaj sd;lfkaj sd;flajksd f;alskdjf a;lsdkfj a;sldkfja ;sdlkfja s;dlfkja sd;flkajs df;alkjsdf ;alsdjf a;sldfj a;sdlfkja sd;lfkaj sd;lkfja sd;lfja sd;lja sd;lkfja sd;lfkja s;dlfkja sd;flkajsd f;laksjd f;alskdjf a;lskdjf al;sdkjf a;lsdjf a;sldkfj a;sldkfj as;dlkfja ;sdlkfja ds;lfkjads fs</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -865,6 +873,11 @@
         <v>97</v>
       </c>
     </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A68B1-1D84-FA48-8F22-81FDFA3EBD91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFABCF-9633-1549-9C75-1736A5D1E28E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -878,6 +878,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11020"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFABCF-9633-1549-9C75-1736A5D1E28E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C2B2DA-1275-6B4A-B57C-C940441C5F9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -883,6 +883,11 @@
         <v>98</v>
       </c>
     </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C2B2DA-1275-6B4A-B57C-C940441C5F9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE5CEFC-EC8F-6A42-9321-D8C710953045}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -888,6 +888,11 @@
         <v>99</v>
       </c>
     </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE5CEFC-EC8F-6A42-9321-D8C710953045}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA7D06-6A3C-9242-9661-6C30996BBDCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3420" windowWidth="21160" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -893,6 +893,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA7D06-6A3C-9242-9661-6C30996BBDCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7A685-C6B5-5D4A-8A40-DF025F40DB1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -898,6 +898,11 @@
         <v>101</v>
       </c>
     </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7A685-C6B5-5D4A-8A40-DF025F40DB1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815C245-675A-C943-AD2A-F307A3D2B84A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -903,6 +903,11 @@
         <v>102</v>
       </c>
     </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\DEV\xltrail-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815C245-675A-C943-AD2A-F307A3D2B84A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3235BCDE-23C7-4C94-910D-E15571B512AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="458" windowWidth="28200" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,527 +385,532 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A103"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\DEV\xltrail-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3235BCDE-23C7-4C94-910D-E15571B512AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947167C-FB7A-764B-A18C-FA82757433F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="458" windowWidth="28200" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,532 +385,537 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947167C-FB7A-764B-A18C-FA82757433F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF211B9-BB76-D44C-940B-2432F3EE490E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="2560" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
@@ -918,6 +918,11 @@
         <v>105</v>
       </c>
     </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF211B9-BB76-D44C-940B-2432F3EE490E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A8724-FB33-0E49-A06E-A52445931876}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="2560" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A106"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -923,6 +923,11 @@
         <v>106</v>
       </c>
     </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A8724-FB33-0E49-A06E-A52445931876}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB7AEEE-A3DF-6E4F-8E00-103025E2C3A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A107"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -928,6 +928,11 @@
         <v>107</v>
       </c>
     </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB7AEEE-A3DF-6E4F-8E00-103025E2C3A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B3756-3723-9240-97C3-D6657B1CEB91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -933,6 +933,11 @@
         <v>108</v>
       </c>
     </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B3756-3723-9240-97C3-D6657B1CEB91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E8353-65E5-8A4B-A993-C66EC27080A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A109"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -938,6 +938,11 @@
         <v>109</v>
       </c>
     </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E8353-65E5-8A4B-A993-C66EC27080A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F063E69-CA42-7845-ADEE-FAC7BA1AE3AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -943,6 +943,11 @@
         <v>110</v>
       </c>
     </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F063E69-CA42-7845-ADEE-FAC7BA1AE3AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75B1E3C-DB31-A343-9DEA-C3179D3BEC40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -948,6 +948,11 @@
         <v>111</v>
       </c>
     </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75B1E3C-DB31-A343-9DEA-C3179D3BEC40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5380F4-CACF-9E4D-8A87-09618C0C2345}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>asdlkj as;dlfkj asdf;lkajsd f;laskdjf ;alsdkfj a;lkj asdf;laksj df;alskdjf a;lsdkjf a;sldkfj as;dlfkja sd;flakjsd f;alsdkfj a;sldkfj as;dlfkja sd;flkajs df;alskdjf a;sldkfja ;sdlfja s;dlfkja sd;flajksd f;lasdkj fa;sldkfj as;ldfja sd;flkajs df;alsdkjf as;dlkfj as;dlfkaj sd;flkajsd f;alskdjf a;lsdkjf a;sdlkfja ;sdlfkaj sd;lfkaj sd;flajksd f;alskdjf a;lsdkfj a;sldkfja ;sdlkfja s;dlfkja sd;flkajs df;alkjsdf ;alsdjf a;sldfj a;sdlfkja sd;lfkaj sd;lkfja sd;lfja sd;lja sd;lkfja sd;lfkja s;dlfkja sd;flkajsd f;laksjd f;alskdjf a;lskdjf al;sdkjf a;lsdjf a;sldkfj a;sldkfj as;dlkfja ;sdlkfja ds;lfkjads fs</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,10 +381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -874,8 +870,8 @@
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>0</v>
+      <c r="A97">
+        <v>97.5</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -951,6 +947,11 @@
     <row r="112" spans="1:1">
       <c r="A112">
         <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5380F4-CACF-9E4D-8A87-09618C0C2345}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE2B708-0102-1D48-8B66-B8F495CDA22E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,577 +372,582 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A113"/>
+  <dimension ref="A1:A114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97.5</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE2B708-0102-1D48-8B66-B8F495CDA22E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562FFC9-93EC-3943-BF86-A27CF1660FD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,582 +372,587 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A114"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>97.5</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562FFC9-93EC-3943-BF86-A27CF1660FD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A406CC9C-D2D7-634E-B357-80A63434A419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:A116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -955,6 +955,11 @@
         <v>115</v>
       </c>
     </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A406CC9C-D2D7-634E-B357-80A63434A419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572150FE-7A80-7B46-A4C7-4A04FE721010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A116"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -960,6 +960,11 @@
         <v>116</v>
       </c>
     </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572150FE-7A80-7B46-A4C7-4A04FE721010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6B08C-A6D8-6648-82B6-4C8DA99E2D4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:A118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -965,6 +965,11 @@
         <v>117</v>
       </c>
     </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6B08C-A6D8-6648-82B6-4C8DA99E2D4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED794865-A6C4-6447-B17B-144D530DB25C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:A119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -970,6 +970,11 @@
         <v>118</v>
       </c>
     </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED794865-A6C4-6447-B17B-144D530DB25C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15EFB8-240E-8D4B-A3DE-EC3319E9A2F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A119"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -975,6 +975,11 @@
         <v>119</v>
       </c>
     </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15EFB8-240E-8D4B-A3DE-EC3319E9A2F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48551C8-567F-4B4A-9D15-D2CD2DF242E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A120"/>
+  <dimension ref="A1:A121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -980,6 +980,11 @@
         <v>120</v>
       </c>
     </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48551C8-567F-4B4A-9D15-D2CD2DF242E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD420EC8-2BC6-0E4C-98ED-3BD891869F78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A121"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -985,6 +985,11 @@
         <v>121</v>
       </c>
     </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD420EC8-2BC6-0E4C-98ED-3BD891869F78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA16207-235F-5245-85DD-C15E8C2DA9E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A122"/>
+  <dimension ref="A1:A123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -990,6 +990,11 @@
         <v>122</v>
       </c>
     </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA16207-235F-5245-85DD-C15E8C2DA9E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967A616-94E0-EE49-9AF3-85E2C663B7BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -995,6 +995,11 @@
         <v>123</v>
       </c>
     </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967A616-94E0-EE49-9AF3-85E2C663B7BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED9EF17-868E-CB4E-B5EA-74A6A9396A17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A124"/>
+  <dimension ref="A1:A125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1000,6 +1000,11 @@
         <v>124</v>
       </c>
     </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED9EF17-868E-CB4E-B5EA-74A6A9396A17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E7854-74B5-EC43-8DED-C0969516C852}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-19160" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,10 +372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1005,6 +1005,11 @@
         <v>125</v>
       </c>
     </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xltrail-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/Library/Containers/com.microsoft.Excel/Data/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E7854-74B5-EC43-8DED-C0969516C852}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B6CDA8-506B-584E-AC5D-7505A6F59051}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-19160" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>remote</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,10 +380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:A127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1010,6 +1018,11 @@
         <v>126</v>
       </c>
     </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/Library/Containers/com.microsoft.Excel/Data/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B6CDA8-506B-584E-AC5D-7505A6F59051}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9360C78-E2B3-FA41-B823-52E49C6092C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-19160" windowWidth="28120" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,647 +380,652 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A127"/>
+  <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97.5</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
